--- a/outputs-r202/c__Thermoplasmata.xlsx
+++ b/outputs-r202/c__Thermoplasmata.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,6 +510,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -561,6 +566,11 @@
           <t>o__Methanomassiliicoccales</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>o__Methanomassiliicoccales</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -612,6 +622,11 @@
           <t>o__Methanomassiliicoccales</t>
         </is>
       </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>o__Methanomassiliicoccales</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -663,6 +678,11 @@
           <t>o__Methanomassiliicoccales</t>
         </is>
       </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>o__Methanomassiliicoccales</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -714,6 +734,11 @@
           <t>o__Methanomassiliicoccales</t>
         </is>
       </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>o__Methanomassiliicoccales</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -765,6 +790,11 @@
           <t>o__Methanomassiliicoccales</t>
         </is>
       </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>o__Methanomassiliicoccales</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -816,6 +846,11 @@
           <t>o__Methanomassiliicoccales</t>
         </is>
       </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>o__Methanomassiliicoccales</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -867,6 +902,11 @@
           <t>o__Methanomassiliicoccales</t>
         </is>
       </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>o__Methanomassiliicoccales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -918,6 +958,11 @@
           <t>o__Methanomassiliicoccales</t>
         </is>
       </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>o__Methanomassiliicoccales</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -969,6 +1014,11 @@
           <t>o__Methanomassiliicoccales</t>
         </is>
       </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>o__Methanomassiliicoccales</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1020,6 +1070,11 @@
           <t>o__Methanomassiliicoccales</t>
         </is>
       </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>o__Methanomassiliicoccales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1071,6 +1126,11 @@
           <t>o__Methanomassiliicoccales</t>
         </is>
       </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>o__Methanomassiliicoccales</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1118,6 +1178,11 @@
         <v>1</v>
       </c>
       <c r="O13" t="inlineStr">
+        <is>
+          <t>o__Methanomassiliicoccales</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>o__Methanomassiliicoccales</t>
         </is>

--- a/outputs-r202/c__Thermoplasmata.xlsx
+++ b/outputs-r202/c__Thermoplasmata.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,47 +519,47 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG255.fasta</t>
+          <t>RUG336.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.007920047249923087</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.220021335198433e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2.220021335198433e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.220021335198433e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.220021335198433e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.9920799527498549</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.220021335198433e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.220021335198433e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.220021335198433e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.220021335198433e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.220021335198433e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.220021335198433e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0.9920799527498549</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG258.fasta</t>
+          <t>hRUG898.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -623,566 +623,6 @@
         </is>
       </c>
       <c r="P3" t="inlineStr">
-        <is>
-          <t>o__Methanomassiliicoccales</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>RUG293.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2.21909652198442e-14</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.21909652198442e-14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.21909652198442e-14</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.21909652198442e-14</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.002055695461774228</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.9242922995732855</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.21909652198442e-14</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.21909652198442e-14</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.21909652198442e-14</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.07365200496474054</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.21909652198442e-14</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.21909652198442e-14</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.9242922995732855</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>o__Methanomassiliicoccales</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>o__Methanomassiliicoccales</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>RUG336.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.007920047249923087</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.220021335198433e-14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.220021335198433e-14</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.220021335198433e-14</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.220021335198433e-14</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9920799527498549</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.220021335198433e-14</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.220021335198433e-14</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.220021335198433e-14</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.220021335198433e-14</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.220021335198433e-14</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2.220021335198433e-14</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.9920799527498549</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>o__Methanomassiliicoccales</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>o__Methanomassiliicoccales</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>RUG466.fasta</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>o__Methanomassiliicoccales</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>o__Methanomassiliicoccales</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>RUG567.fasta</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>o__Methanomassiliicoccales</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>o__Methanomassiliicoccales</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>RUG568.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5.54397217757861e-12</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5.54397217757861e-12</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5.54397217757861e-12</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.543972177578605e-12</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5.543972177578605e-12</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.7240104842181346</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5.54397217757861e-12</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.54397217757861e-12</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.2759895157264254</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.5439721775786e-12</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.543972177578597e-12</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5.543972177578599e-12</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.7240104842181346</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>o__Methanomassiliicoccales</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>o__Methanomassiliicoccales(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>RUG642.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>o__Methanomassiliicoccales</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>o__Methanomassiliicoccales</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>RUG675.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>o__Methanomassiliicoccales</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>o__Methanomassiliicoccales</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>RUG707.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.04555287546442851</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.04555287546442851</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.04555287546442851</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.04555287546442851</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.04555287546442845</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.4989183698912868</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.04555287546442843</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.04555287546442844</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.04555287546442844</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.04555287546442846</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.04555287546442846</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.04555287546442846</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.4989183698912868</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>o__Methanomassiliicoccales</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>o__Methanomassiliicoccales(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>RUG779.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>o__Methanomassiliicoccales</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>o__Methanomassiliicoccales</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>hRUG898.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>o__Methanomassiliicoccales</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
         <is>
           <t>o__Methanomassiliicoccales</t>
         </is>
